--- a/randomized_search_cvWHITE.xlsx
+++ b/randomized_search_cvWHITE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="-500" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="randomized_search_cvWHITE" sheetId="1" r:id="rId1"/>
@@ -181,8 +181,14 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> R^2 Score</a:t>
+              <a:t> R^2 Score for White Wine</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -659,9 +665,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs. Error</a:t>
+              <a:t> vs. Error for White Wine</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>

--- a/randomized_search_cvWHITE.xlsx
+++ b/randomized_search_cvWHITE.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mackenziecarey/Documents/Wine_Regression/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26405"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-500" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="randomized_search_cvWHITE" sheetId="1" r:id="rId1"/>
@@ -186,7 +181,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US" baseline="0"/>
           </a:p>
@@ -201,26 +206,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -253,6 +238,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>randomized_search_cvWHITE!$A$1:$A$10</c:f>
@@ -341,11 +332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088733696"/>
-        <c:axId val="-2088446928"/>
+        <c:axId val="2075608200"/>
+        <c:axId val="2075612024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2088733696"/>
+        <c:axId val="2075608200"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -401,26 +392,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -459,12 +430,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088446928"/>
+        <c:crossAx val="2075612024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2088446928"/>
+        <c:axId val="2075612024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,26 +490,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -577,7 +528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088733696"/>
+        <c:crossAx val="2075608200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -679,26 +630,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -946,11 +877,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117789648"/>
-        <c:axId val="-2083273712"/>
+        <c:axId val="2075678712"/>
+        <c:axId val="2075687528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117789648"/>
+        <c:axId val="2075678712"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1006,26 +937,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1064,12 +975,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083273712"/>
+        <c:crossAx val="2075687528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2083273712"/>
+        <c:axId val="2075687528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,26 +1035,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1182,7 +1073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117789648"/>
+        <c:crossAx val="2075678712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2483,7 +2374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2518,7 +2409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2695,7 +2586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2706,12 +2597,12 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>1.0000000000000099E-6</v>
       </c>
@@ -2725,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1.00019999999999E-5</v>
       </c>
@@ -2739,7 +2630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1.0002000400000001E-4</v>
       </c>
@@ -2753,7 +2644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1.0002000400080001E-3</v>
       </c>
@@ -2767,7 +2658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1.00020004000798E-2</v>
       </c>
@@ -2781,7 +2672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>0.10002000400080099</v>
       </c>
@@ -2795,7 +2686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1.000200040008</v>
       </c>
@@ -2809,7 +2700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>10.00200040008</v>
       </c>
@@ -2823,7 +2714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>100.0200040008</v>
       </c>
@@ -2837,7 +2728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>1000.200040008</v>
       </c>
@@ -2851,7 +2742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -2859,7 +2750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1.0000000000000099E-6</v>
       </c>
@@ -2870,7 +2761,7 @@
         <v>0.51223483000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>1.00019999999999E-5</v>
       </c>
@@ -2881,7 +2772,7 @@
         <v>0.51327794999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>1.0002000400000001E-4</v>
       </c>
@@ -2892,7 +2783,7 @@
         <v>0.51346455000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>1.0002000400080001E-3</v>
       </c>
@@ -2903,7 +2794,7 @@
         <v>0.51547520999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>1.00020004000798E-2</v>
       </c>
@@ -2914,7 +2805,7 @@
         <v>0.52725988999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>0.10002000400080099</v>
       </c>
@@ -2925,7 +2816,7 @@
         <v>0.56184811999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>1.000200040008</v>
       </c>
@@ -2936,7 +2827,7 @@
         <v>0.60886048000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>10.00200040008</v>
       </c>
@@ -2947,7 +2838,7 @@
         <v>0.63288840000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>100.0200040008</v>
       </c>
@@ -2958,7 +2849,7 @@
         <v>0.64855103999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>1000.200040008</v>
       </c>
@@ -2972,5 +2863,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/randomized_search_cvWHITE.xlsx
+++ b/randomized_search_cvWHITE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="100" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="randomized_search_cvWHITE" sheetId="1" r:id="rId1"/>
@@ -91,13 +91,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,9 +125,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,7 +164,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -171,17 +177,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Alpha vs.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> R^2 Score for White Wine</a:t>
+              <a:rPr lang="en-US" sz="600" baseline="0"/>
+              <a:t>       </a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -193,7 +195,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="600" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -209,7 +211,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.117413174915636"/>
+          <c:y val="0.0954863081386082"/>
+          <c:w val="0.837443932789651"/>
+          <c:h val="0.760930232558139"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -332,16 +344,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2075608200"/>
-        <c:axId val="2075612024"/>
+        <c:axId val="2074647576"/>
+        <c:axId val="2086068504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2075608200"/>
+        <c:axId val="2074647576"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -357,89 +369,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Alpha values</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2075612024"/>
+        <c:crossAx val="2086068504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2075612024"/>
+        <c:axId val="2086068504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -455,80 +398,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2075608200"/>
+        <c:crossAx val="2074647576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -598,7 +472,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -611,17 +485,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>Alpha</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs. Error for White Wine</a:t>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+              <a:t> vs. Mean Error</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.336863079615048"/>
+          <c:y val="0.0396039603960396"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -877,16 +758,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2075678712"/>
-        <c:axId val="2075687528"/>
+        <c:axId val="2080798776"/>
+        <c:axId val="2080660200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2075678712"/>
+        <c:axId val="2080798776"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -909,7 +790,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -922,13 +803,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Alpha values</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42460498687664"/>
+              <c:y val="0.812523583066968"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -942,45 +830,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2075687528"/>
+        <c:crossAx val="2080660200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2075687528"/>
+        <c:axId val="2080660200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +862,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1020,13 +875,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Error</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0166666666666667"/>
+              <c:y val="0.397703282139238"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1073,7 +935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075678712"/>
+        <c:crossAx val="2080798776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1117,6 +979,314 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="600" baseline="0"/>
+              <a:t>       </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="600" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0601092896174863"/>
+          <c:y val="0.141395348837209"/>
+          <c:w val="0.92896174863388"/>
+          <c:h val="0.760930232558139"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>randomized_search_cvWHITE!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.00000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00019999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.000100020004</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.001000200040008</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.0100020004000798</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.100020004000801</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.000200040008</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>10.00200040008</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>100.0200040008</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1000.200040008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>randomized_search_cvWHITE!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.23029236994299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.230759398192905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.230809872988993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.230726535255391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2223922255578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.147736257901021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.0260262050039401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.0811405368269735</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.132521932589604</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1767546812534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2103575176"/>
+        <c:axId val="2103516360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2103575176"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103516360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2103516360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103575176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2271,15 +2441,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2300,16 +2470,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2328,6 +2498,1055 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5054600" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="3124200"/>
+          <a:ext cx="5054600" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>-7         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>-6           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>-5            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>-4             </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>-3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>        10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>-2   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>       10-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>        10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>0             </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>1              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>2            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>3  </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4191000" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4356100" y="6413500"/>
+          <a:ext cx="4191000" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>-7      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>-6         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>-5       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>-4         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>-3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>      10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>-2   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>  10-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>     10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>0         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>1          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>2         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="30000"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4038600" cy="338554"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="177800"/>
+          <a:ext cx="4038600" cy="338554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0"/>
+            <a:t>              Alpha Values Vs. R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="30000"/>
+            <a:t>2  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0"/>
+            <a:t>Scores</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" baseline="30000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="363269" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918200" y="406400"/>
+          <a:ext cx="363269" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0.3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="434766" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5892800" y="660400"/>
+          <a:ext cx="434766" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050"/>
+            <a:t>0.25</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="363269" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5930900" y="914400"/>
+          <a:ext cx="363269" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0.2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="434766" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="1143000"/>
+          <a:ext cx="434766" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0.15</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="363269" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918200" y="1435100"/>
+          <a:ext cx="363269" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0.1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="434766" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="1701800"/>
+          <a:ext cx="434766" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0.05</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256162" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5956300" y="1943100"/>
+          <a:ext cx="256162" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="477953" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5842000" y="2197100"/>
+          <a:ext cx="477953" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-0.05</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="406456" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="2451100"/>
+          <a:ext cx="406456" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-0.1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="477953" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5842000" y="2705100"/>
+          <a:ext cx="477953" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-0.15</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="406456" cy="261610"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="2959100"/>
+          <a:ext cx="406456" cy="261610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-0.2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673117</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60524</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="307777" cy="877163"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5341424" y="1678717"/>
+          <a:ext cx="877163" cy="307777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="30000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t> Scores</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="307777"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8102600" y="3289300"/>
+          <a:ext cx="1172116" cy="307777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Alpha Values</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2586,7 +3805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2594,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2860,8 +4079,14 @@
         <v>0.65280780999999999</v>
       </c>
     </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
